--- a/static/download/2022/RP3_APT_TxOut_2022_Jan_Feb.xlsx
+++ b/static/download/2022/RP3_APT_TxOut_2022_Jan_Feb.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhegendo\Downloads\04-release-20220413T145423Z-001\04-release\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="TxOut_APT" sheetId="1" r:id="rId1"/>
-    <sheet name="Change Log" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="TxOut_APT" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Change Log" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="127">
   <si>
     <t>Data source</t>
   </si>
@@ -85,7 +77,7 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Berlin/ Schoenefeld (EDDB)</t>
+    <t>Berlin Brandenburg (EDDB)</t>
   </si>
   <si>
     <t>EDDB</t>
@@ -406,84 +398,83 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="d mmm yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF980000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FFF3F3F3"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -492,7 +483,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -514,12 +505,11 @@
     </fill>
   </fills>
   <borders count="5">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left/>
@@ -528,16 +518,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -552,7 +532,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -561,394 +540,165 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.63"/>
+    <col customWidth="1" min="2" max="3" width="25.0"/>
+    <col customWidth="1" min="4" max="4" width="14.5"/>
+    <col customWidth="1" min="5" max="5" width="22.63"/>
+    <col customWidth="1" min="6" max="6" width="17.75"/>
+    <col customWidth="1" min="7" max="7" width="24.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -969,22 +719,19 @@
         <v>Taxi out additional time</v>
       </c>
       <c r="G1" s="6"/>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>44664</v>
+        <v>44664.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="10">
-        <v>44620</v>
+        <v>44620.0</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
@@ -994,7 +741,7 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +752,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
@@ -1018,7 +765,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
@@ -1052,20 +799,20 @@
         <v>20</v>
       </c>
       <c r="D6" s="24">
-        <v>10033</v>
+        <v>10033.0</v>
       </c>
       <c r="E6" s="25">
-        <f t="shared" ref="E6:E13" si="0">F6/D6</f>
-        <v>1.204724409448819</v>
+        <f t="shared" ref="E6:E13" si="1">F6/D6</f>
+        <v>1.204724409</v>
       </c>
       <c r="F6" s="24">
-        <v>12087</v>
+        <v>12087.0</v>
       </c>
       <c r="G6" s="26">
         <v>9.24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>21</v>
       </c>
@@ -1076,11 +823,11 @@
         <v>23</v>
       </c>
       <c r="D7" s="24">
-        <v>9234</v>
+        <v>9234.0</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" si="0"/>
-        <v>0.85442603422135588</v>
+        <f t="shared" si="1"/>
+        <v>0.8544260342</v>
       </c>
       <c r="F7" s="24">
         <v>7889.77</v>
@@ -1089,7 +836,7 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
@@ -1100,20 +847,20 @@
         <v>23</v>
       </c>
       <c r="D8" s="24">
-        <v>21899</v>
+        <v>21899.0</v>
       </c>
       <c r="E8" s="25">
-        <f t="shared" si="0"/>
-        <v>1.6261674049043335</v>
+        <f t="shared" si="1"/>
+        <v>1.626167405</v>
       </c>
       <c r="F8" s="24">
-        <v>35611.440000000002</v>
+        <v>35611.44</v>
       </c>
       <c r="G8" s="26">
         <v>11.45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
@@ -1124,20 +871,20 @@
         <v>23</v>
       </c>
       <c r="D9" s="24">
-        <v>5274</v>
+        <v>5274.0</v>
       </c>
       <c r="E9" s="25">
-        <f t="shared" si="0"/>
-        <v>0.98025218050815333</v>
+        <f t="shared" si="1"/>
+        <v>0.9802521805</v>
       </c>
       <c r="F9" s="24">
-        <v>5169.8500000000004</v>
+        <v>5169.85</v>
       </c>
       <c r="G9" s="28">
         <v>7.21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>28</v>
       </c>
@@ -1148,11 +895,11 @@
         <v>23</v>
       </c>
       <c r="D10" s="24">
-        <v>6701</v>
+        <v>6701.0</v>
       </c>
       <c r="E10" s="25">
-        <f t="shared" si="0"/>
-        <v>1.4574347112371289</v>
+        <f t="shared" si="1"/>
+        <v>1.457434711</v>
       </c>
       <c r="F10" s="24">
         <v>9766.27</v>
@@ -1161,7 +908,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>30</v>
       </c>
@@ -1172,20 +919,20 @@
         <v>23</v>
       </c>
       <c r="D11" s="24">
-        <v>6640</v>
+        <v>6640.0</v>
       </c>
       <c r="E11" s="25">
-        <f t="shared" si="0"/>
-        <v>1.4573614457831323</v>
+        <f t="shared" si="1"/>
+        <v>1.457361446</v>
       </c>
       <c r="F11" s="24">
-        <v>9676.8799999999992</v>
+        <v>9676.88</v>
       </c>
       <c r="G11" s="26">
-        <v>9.8800000000000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.88</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>32</v>
       </c>
@@ -1196,20 +943,20 @@
         <v>23</v>
       </c>
       <c r="D12" s="24">
-        <v>14370</v>
+        <v>14370.0</v>
       </c>
       <c r="E12" s="25">
-        <f t="shared" si="0"/>
-        <v>3.4509394572025052</v>
+        <f t="shared" si="1"/>
+        <v>3.450939457</v>
       </c>
       <c r="F12" s="24">
-        <v>49590</v>
+        <v>49590.0</v>
       </c>
       <c r="G12" s="26">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.45</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>34</v>
       </c>
@@ -1220,11 +967,11 @@
         <v>23</v>
       </c>
       <c r="D13" s="24">
-        <v>3749</v>
+        <v>3749.0</v>
       </c>
       <c r="E13" s="25">
-        <f t="shared" si="0"/>
-        <v>2.0859535876233664</v>
+        <f t="shared" si="1"/>
+        <v>2.085953588</v>
       </c>
       <c r="F13" s="24">
         <v>7820.24</v>
@@ -1233,7 +980,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
@@ -1248,7 +995,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>39</v>
       </c>
@@ -1259,11 +1006,11 @@
         <v>41</v>
       </c>
       <c r="D15" s="24">
-        <v>25600</v>
+        <v>25600.0</v>
       </c>
       <c r="E15" s="25">
-        <f t="shared" ref="E15:E17" si="1">F15/D15</f>
-        <v>2.3825710937500002</v>
+        <f t="shared" ref="E15:E17" si="2">F15/D15</f>
+        <v>2.382571094</v>
       </c>
       <c r="F15" s="24">
         <v>60993.82</v>
@@ -1272,7 +1019,7 @@
         <v>9.01</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="22" t="s">
         <v>42</v>
       </c>
@@ -1283,11 +1030,11 @@
         <v>44</v>
       </c>
       <c r="D16" s="24">
-        <v>10250</v>
+        <v>10250.0</v>
       </c>
       <c r="E16" s="25">
-        <f t="shared" si="1"/>
-        <v>2.1254146341463414</v>
+        <f t="shared" si="2"/>
+        <v>2.125414634</v>
       </c>
       <c r="F16" s="24">
         <v>21785.5</v>
@@ -1296,7 +1043,7 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="22" t="s">
         <v>45</v>
       </c>
@@ -1307,20 +1054,20 @@
         <v>47</v>
       </c>
       <c r="D17" s="24">
-        <v>10409</v>
+        <v>10409.0</v>
       </c>
       <c r="E17" s="25">
-        <f t="shared" si="1"/>
-        <v>2.1477596310884812</v>
+        <f t="shared" si="2"/>
+        <v>2.147759631</v>
       </c>
       <c r="F17" s="24">
         <v>22356.03</v>
       </c>
       <c r="G17" s="28">
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.95</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="22" t="s">
         <v>48</v>
       </c>
@@ -1335,7 +1082,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="22" t="s">
         <v>51</v>
       </c>
@@ -1350,7 +1097,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="22" t="s">
         <v>53</v>
       </c>
@@ -1361,20 +1108,20 @@
         <v>55</v>
       </c>
       <c r="D20" s="24">
-        <v>8436</v>
+        <v>8436.0</v>
       </c>
       <c r="E20" s="25">
-        <f t="shared" ref="E20:E29" si="2">F20/D20</f>
-        <v>2.844651493598862</v>
+        <f t="shared" ref="E20:E29" si="3">F20/D20</f>
+        <v>2.844651494</v>
       </c>
       <c r="F20" s="24">
         <v>23997.48</v>
       </c>
       <c r="G20" s="26">
-        <v>8.3699999999999992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.37</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="22" t="s">
         <v>56</v>
       </c>
@@ -1385,20 +1132,20 @@
         <v>58</v>
       </c>
       <c r="D21" s="24">
-        <v>8925</v>
+        <v>8925.0</v>
       </c>
       <c r="E21" s="25">
-        <f t="shared" si="2"/>
-        <v>1.880333893557423</v>
+        <f t="shared" si="3"/>
+        <v>1.880333894</v>
       </c>
       <c r="F21" s="24">
         <v>16781.98</v>
       </c>
       <c r="G21" s="26">
-        <v>8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.54</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="22" t="s">
         <v>59</v>
       </c>
@@ -1409,11 +1156,11 @@
         <v>61</v>
       </c>
       <c r="D22" s="24">
-        <v>8457</v>
+        <v>8457.0</v>
       </c>
       <c r="E22" s="25">
-        <f t="shared" si="2"/>
-        <v>2.3685278467541679</v>
+        <f t="shared" si="3"/>
+        <v>2.368527847</v>
       </c>
       <c r="F22" s="24">
         <v>20030.64</v>
@@ -1422,7 +1169,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="22" t="s">
         <v>62</v>
       </c>
@@ -1433,20 +1180,20 @@
         <v>61</v>
       </c>
       <c r="D23" s="24">
-        <v>3961</v>
+        <v>3961.0</v>
       </c>
       <c r="E23" s="25">
-        <f t="shared" si="2"/>
-        <v>1.0790154001514769</v>
+        <f t="shared" si="3"/>
+        <v>1.0790154</v>
       </c>
       <c r="F23" s="24">
-        <v>4273.9799999999996</v>
+        <v>4273.98</v>
       </c>
       <c r="G23" s="28">
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.95</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="22" t="s">
         <v>64</v>
       </c>
@@ -1457,11 +1204,11 @@
         <v>61</v>
       </c>
       <c r="D24" s="24">
-        <v>7631</v>
+        <v>7631.0</v>
       </c>
       <c r="E24" s="25">
-        <f t="shared" si="2"/>
-        <v>2.1566701611846413</v>
+        <f t="shared" si="3"/>
+        <v>2.156670161</v>
       </c>
       <c r="F24" s="24">
         <v>16457.55</v>
@@ -1470,7 +1217,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="22" t="s">
         <v>66</v>
       </c>
@@ -1481,11 +1228,11 @@
         <v>61</v>
       </c>
       <c r="D25" s="24">
-        <v>21744</v>
+        <v>21744.0</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" si="2"/>
-        <v>2.2949645879323031</v>
+        <f t="shared" si="3"/>
+        <v>2.294964588</v>
       </c>
       <c r="F25" s="24">
         <v>49901.71</v>
@@ -1494,7 +1241,7 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="22" t="s">
         <v>68</v>
       </c>
@@ -1505,11 +1252,11 @@
         <v>61</v>
       </c>
       <c r="D26" s="24">
-        <v>3676</v>
+        <v>3676.0</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" si="2"/>
-        <v>2.1276713819368878</v>
+        <f t="shared" si="3"/>
+        <v>2.127671382</v>
       </c>
       <c r="F26" s="24">
         <v>7821.32</v>
@@ -1518,7 +1265,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="22" t="s">
         <v>70</v>
       </c>
@@ -1529,11 +1276,11 @@
         <v>61</v>
       </c>
       <c r="D27" s="24">
-        <v>6588</v>
+        <v>6588.0</v>
       </c>
       <c r="E27" s="25">
-        <f t="shared" si="2"/>
-        <v>0.44072404371584695</v>
+        <f t="shared" si="3"/>
+        <v>0.4407240437</v>
       </c>
       <c r="F27" s="24">
         <v>2903.49</v>
@@ -1542,7 +1289,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="22" t="s">
         <v>72</v>
       </c>
@@ -1553,20 +1300,20 @@
         <v>74</v>
       </c>
       <c r="D28" s="24">
-        <v>3757</v>
+        <v>3757.0</v>
       </c>
       <c r="E28" s="25">
-        <f t="shared" si="2"/>
-        <v>0.52501996273622575</v>
+        <f t="shared" si="3"/>
+        <v>0.5250199627</v>
       </c>
       <c r="F28" s="24">
         <v>1972.5</v>
       </c>
       <c r="G28" s="26">
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.87</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="22" t="s">
         <v>75</v>
       </c>
@@ -1577,20 +1324,20 @@
         <v>74</v>
       </c>
       <c r="D29" s="24">
-        <v>4377</v>
+        <v>4377.0</v>
       </c>
       <c r="E29" s="25">
-        <f t="shared" si="2"/>
-        <v>0.64747543979894906</v>
+        <f t="shared" si="3"/>
+        <v>0.6474754398</v>
       </c>
       <c r="F29" s="24">
-        <v>2834</v>
+        <v>2834.0</v>
       </c>
       <c r="G29" s="26">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.45</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="22" t="s">
         <v>77</v>
       </c>
@@ -1605,7 +1352,7 @@
       <c r="F30" s="24"/>
       <c r="G30" s="26"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="22" t="s">
         <v>79</v>
       </c>
@@ -1620,7 +1367,7 @@
       <c r="F31" s="24"/>
       <c r="G31" s="26"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="22" t="s">
         <v>81</v>
       </c>
@@ -1631,11 +1378,11 @@
         <v>74</v>
       </c>
       <c r="D32" s="24">
-        <v>23669</v>
+        <v>23669.0</v>
       </c>
       <c r="E32" s="25">
-        <f t="shared" ref="E32:E41" si="3">F32/D32</f>
-        <v>2.5154210148295237</v>
+        <f t="shared" ref="E32:E41" si="4">F32/D32</f>
+        <v>2.515421015</v>
       </c>
       <c r="F32" s="24">
         <v>59537.5</v>
@@ -1644,7 +1391,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="22" t="s">
         <v>83</v>
       </c>
@@ -1655,20 +1402,20 @@
         <v>74</v>
       </c>
       <c r="D33" s="24">
-        <v>11176</v>
+        <v>11176.0</v>
       </c>
       <c r="E33" s="25">
-        <f t="shared" si="3"/>
-        <v>1.4523532569792412</v>
+        <f t="shared" si="4"/>
+        <v>1.452353257</v>
       </c>
       <c r="F33" s="24">
         <v>16231.5</v>
       </c>
       <c r="G33" s="26">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="22" t="s">
         <v>85</v>
       </c>
@@ -1679,20 +1426,20 @@
         <v>87</v>
       </c>
       <c r="D34" s="24">
-        <v>5372</v>
+        <v>5372.0</v>
       </c>
       <c r="E34" s="25">
-        <f t="shared" si="3"/>
-        <v>1.7259363365599403</v>
+        <f t="shared" si="4"/>
+        <v>1.725936337</v>
       </c>
       <c r="F34" s="24">
         <v>9271.73</v>
       </c>
       <c r="G34" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="22" t="s">
         <v>88</v>
       </c>
@@ -1703,20 +1450,20 @@
         <v>90</v>
       </c>
       <c r="D35" s="24">
-        <v>5653</v>
+        <v>5653.0</v>
       </c>
       <c r="E35" s="25">
-        <f t="shared" si="3"/>
-        <v>1.0188731646913143</v>
+        <f t="shared" si="4"/>
+        <v>1.018873165</v>
       </c>
       <c r="F35" s="24">
         <v>5759.69</v>
       </c>
       <c r="G35" s="28">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="22" t="s">
         <v>91</v>
       </c>
@@ -1727,11 +1474,11 @@
         <v>93</v>
       </c>
       <c r="D36" s="24">
-        <v>10643</v>
+        <v>10643.0</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" si="3"/>
-        <v>3.6808127407685802</v>
+        <f t="shared" si="4"/>
+        <v>3.680812741</v>
       </c>
       <c r="F36" s="24">
         <v>39174.89</v>
@@ -1740,7 +1487,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="22" t="s">
         <v>94</v>
       </c>
@@ -1751,20 +1498,20 @@
         <v>93</v>
       </c>
       <c r="D37" s="24">
-        <v>5512</v>
+        <v>5512.0</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" si="3"/>
-        <v>1.3503265602322205</v>
+        <f t="shared" si="4"/>
+        <v>1.35032656</v>
       </c>
       <c r="F37" s="24">
-        <v>7443</v>
+        <v>7443.0</v>
       </c>
       <c r="G37" s="26">
         <v>10.33</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="22" t="s">
         <v>96</v>
       </c>
@@ -1775,20 +1522,20 @@
         <v>93</v>
       </c>
       <c r="D38" s="24">
-        <v>6076</v>
+        <v>6076.0</v>
       </c>
       <c r="E38" s="25">
-        <f t="shared" si="3"/>
-        <v>2.6377880184331799</v>
+        <f t="shared" si="4"/>
+        <v>2.637788018</v>
       </c>
       <c r="F38" s="24">
         <v>16027.2</v>
       </c>
       <c r="G38" s="26">
-        <v>9.9700000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.97</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="22" t="s">
         <v>98</v>
       </c>
@@ -1799,11 +1546,11 @@
         <v>93</v>
       </c>
       <c r="D39" s="24">
-        <v>3355</v>
+        <v>3355.0</v>
       </c>
       <c r="E39" s="25">
-        <f t="shared" si="3"/>
-        <v>1.675558867362146</v>
+        <f t="shared" si="4"/>
+        <v>1.675558867</v>
       </c>
       <c r="F39" s="24">
         <v>5621.5</v>
@@ -1812,7 +1559,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="22" t="s">
         <v>100</v>
       </c>
@@ -1823,20 +1570,20 @@
         <v>93</v>
       </c>
       <c r="D40" s="24">
-        <v>10046</v>
+        <v>10046.0</v>
       </c>
       <c r="E40" s="25">
-        <f t="shared" si="3"/>
-        <v>2.5642046585705756</v>
+        <f t="shared" si="4"/>
+        <v>2.564204659</v>
       </c>
       <c r="F40" s="24">
-        <v>25760</v>
+        <v>25760.0</v>
       </c>
       <c r="G40" s="26">
         <v>12.22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="22" t="s">
         <v>102</v>
       </c>
@@ -1847,20 +1594,20 @@
         <v>104</v>
       </c>
       <c r="D41" s="24">
-        <v>4934</v>
+        <v>4934.0</v>
       </c>
       <c r="E41" s="25">
-        <f t="shared" si="3"/>
-        <v>1.7648966355897853</v>
+        <f t="shared" si="4"/>
+        <v>1.764896636</v>
       </c>
       <c r="F41" s="24">
-        <v>8708</v>
+        <v>8708.0</v>
       </c>
       <c r="G41" s="26">
         <v>7.75</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="22" t="s">
         <v>105</v>
       </c>
@@ -1875,7 +1622,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="22" t="s">
         <v>108</v>
       </c>
@@ -1886,11 +1633,11 @@
         <v>110</v>
       </c>
       <c r="D43" s="24">
-        <v>4923</v>
+        <v>4923.0</v>
       </c>
       <c r="E43" s="25">
-        <f t="shared" ref="E43:E44" si="4">F43/D43</f>
-        <v>1.3332480195003047</v>
+        <f t="shared" ref="E43:E44" si="5">F43/D43</f>
+        <v>1.33324802</v>
       </c>
       <c r="F43" s="24">
         <v>6563.58</v>
@@ -1899,7 +1646,7 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="22" t="s">
         <v>111</v>
       </c>
@@ -1910,20 +1657,20 @@
         <v>110</v>
       </c>
       <c r="D44" s="24">
-        <v>11816</v>
+        <v>11816.0</v>
       </c>
       <c r="E44" s="25">
-        <f t="shared" si="4"/>
-        <v>2.1119067366283009</v>
+        <f t="shared" si="5"/>
+        <v>2.111906737</v>
       </c>
       <c r="F44" s="24">
         <v>24954.29</v>
       </c>
       <c r="G44" s="26">
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.05</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="22" t="s">
         <v>113</v>
       </c>
@@ -1938,7 +1685,7 @@
       <c r="F45" s="24"/>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="22" t="s">
         <v>116</v>
       </c>
@@ -1949,11 +1696,11 @@
         <v>118</v>
       </c>
       <c r="D46" s="24">
-        <v>11288</v>
+        <v>11288.0</v>
       </c>
       <c r="E46" s="25">
-        <f t="shared" ref="E46:E47" si="5">F46/D46</f>
-        <v>1.9262765768958188</v>
+        <f t="shared" ref="E46:E47" si="6">F46/D46</f>
+        <v>1.926276577</v>
       </c>
       <c r="F46" s="24">
         <v>21743.81</v>
@@ -1962,7 +1709,7 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="22" t="s">
         <v>119</v>
       </c>
@@ -1973,42 +1720,41 @@
         <v>118</v>
       </c>
       <c r="D47" s="24">
-        <v>11733</v>
+        <v>11733.0</v>
       </c>
       <c r="E47" s="25">
-        <f t="shared" si="5"/>
-        <v>2.5518793147532599</v>
+        <f t="shared" si="6"/>
+        <v>2.551879315</v>
       </c>
       <c r="F47" s="24">
-        <v>29941.200000000001</v>
+        <v>29941.2</v>
       </c>
       <c r="G47" s="28">
         <v>8.84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="81" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.13"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="81.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="29" t="s">
         <v>121</v>
       </c>
@@ -2022,9 +1768,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="31">
-        <v>44351</v>
+        <v>44351.0</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>125</v>
@@ -2034,25 +1780,25 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="34"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="34"/>
       <c r="B4" s="35"/>
       <c r="C4" s="34"/>
       <c r="D4" s="35"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="36"/>
       <c r="C5" s="37"/>
       <c r="D5" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>